--- a/multinommod.xlsx
+++ b/multinommod.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Høy</t>
+          <t>Hoy</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
